--- a/Analytics/SC0/RefereeFirstCard_sc0.xlsx
+++ b/Analytics/SC0/RefereeFirstCard_sc0.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="one_and15" r:id="rId3" sheetId="1"/>
-    <sheet name="fifteen_and30" r:id="rId4" sheetId="2"/>
+    <sheet name="fifteen_and38" r:id="rId4" sheetId="2"/>
     <sheet name="thirty_and45" r:id="rId5" sheetId="3"/>
     <sheet name="fortyfive_and60" r:id="rId6" sheetId="4"/>
     <sheet name="sixty_and75" r:id="rId7" sheetId="5"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="40">
   <si>
     <t>Referee</t>
   </si>
@@ -73,39 +73,42 @@
     <t>16</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>William Collum</t>
   </si>
   <si>
     <t>John Beaton</t>
   </si>
   <si>
+    <t>David Munro</t>
+  </si>
+  <si>
     <t>Nick Walsh</t>
   </si>
   <si>
+    <t>Steven McLean</t>
+  </si>
+  <si>
+    <t>Craig Napier</t>
+  </si>
+  <si>
     <t>Kevin Clancy</t>
   </si>
   <si>
     <t>Don Robertson</t>
   </si>
   <si>
-    <t>David Munro</t>
-  </si>
-  <si>
     <t>Alan Muir</t>
   </si>
   <si>
     <t>Graham Grainger</t>
   </si>
   <si>
-    <t>Steven McLean</t>
-  </si>
-  <si>
     <t>Calum Scott</t>
   </si>
   <si>
-    <t>Craig Napier</t>
-  </si>
-  <si>
     <t>Matthew MacDermid</t>
   </si>
   <si>
@@ -115,13 +118,19 @@
     <t>Euan Anderson</t>
   </si>
   <si>
+    <t>David Dickinson</t>
+  </si>
+  <si>
     <t>Colin Steven</t>
   </si>
   <si>
     <t>Grant Irvine</t>
   </si>
   <si>
-    <t>David Dickinson</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>Chris Graham</t>
@@ -192,10 +201,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -203,7 +212,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -214,7 +223,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -225,10 +234,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -236,7 +245,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -247,7 +256,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -258,7 +267,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -269,7 +278,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -280,10 +289,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -291,10 +300,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -302,7 +311,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -313,7 +322,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -324,7 +333,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -335,7 +344,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -346,7 +355,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -357,9 +366,20 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -390,10 +410,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -401,10 +421,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
@@ -412,10 +432,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="5">
@@ -423,10 +443,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
@@ -434,10 +454,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -445,10 +465,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -456,10 +476,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -467,10 +487,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
@@ -478,10 +498,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -489,10 +509,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -500,10 +520,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -511,10 +531,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -522,10 +542,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -533,10 +553,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -544,9 +564,53 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -577,10 +641,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -588,10 +652,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -599,10 +663,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -610,10 +674,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -621,10 +685,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -635,7 +699,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -643,10 +707,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -654,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -676,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -687,10 +751,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -698,10 +762,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -709,10 +773,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -720,10 +784,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -731,10 +795,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -742,7 +806,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -775,10 +839,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -786,10 +850,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -797,10 +861,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -819,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -830,10 +894,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -841,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -852,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -863,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -874,10 +938,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -888,7 +952,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -896,10 +960,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -907,10 +971,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -918,9 +982,20 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -951,10 +1026,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -962,10 +1037,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -973,10 +1048,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -984,10 +1059,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -995,10 +1070,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1006,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1017,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1028,9 +1103,42 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1064,7 +1172,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -1072,10 +1180,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1083,10 +1191,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1094,10 +1202,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1105,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1116,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1127,9 +1235,53 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/SC0/RefereeFirstCard_sc0.xlsx
+++ b/Analytics/SC0/RefereeFirstCard_sc0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
   <si>
     <t>Referee</t>
   </si>
@@ -49,30 +49,33 @@
     <t>8</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Don Robertson</t>
   </si>
   <si>
     <t>Calum Scott</t>
   </si>
   <si>
+    <t>Nick Walsh</t>
+  </si>
+  <si>
     <t>Euan Anderson</t>
   </si>
   <si>
+    <t>David Dickinson</t>
+  </si>
+  <si>
     <t>Chris Graham</t>
   </si>
   <si>
-    <t>Nick Walsh</t>
-  </si>
-  <si>
     <t>John Beaton</t>
   </si>
   <si>
     <t>Iain Snedden</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>13</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Steven McLean</t>
   </si>
   <si>
@@ -98,9 +104,6 @@
   </si>
   <si>
     <t>Matthew MacDermid</t>
-  </si>
-  <si>
-    <t>David Dickinson</t>
   </si>
   <si>
     <t>Ross Hardie</t>
@@ -188,7 +191,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -199,7 +202,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -210,10 +213,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -221,7 +224,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -232,7 +235,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -243,7 +246,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -254,9 +257,20 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -298,7 +312,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -309,7 +323,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -320,7 +334,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -331,7 +345,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -342,7 +356,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -353,7 +367,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -364,7 +378,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -372,10 +386,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -383,10 +397,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -394,10 +408,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -405,10 +419,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -416,12 +430,23 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -463,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -474,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -485,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -496,7 +521,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -507,9 +532,20 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -551,10 +587,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -573,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -584,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -595,7 +631,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -606,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -617,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -625,10 +661,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -636,10 +672,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -683,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -694,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -705,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -737,10 +773,21 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="e">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1.0</v>
       </c>
     </row>
